--- a/interface-speechrecognitionthreshold-cdtt/src/test/resources/Settings.xlsx
+++ b/interface-speechrecognitionthreshold-cdtt/src/test/resources/Settings.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Projects\DTTdev\Application\DTT\applicationFiles\Settings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F607F65-366C-472D-BF11-E39D8ADE031F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DefaultParameters" sheetId="3" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Setting</t>
   </si>
@@ -105,9 +111,6 @@
     <t>Default single-digit test settings</t>
   </si>
   <si>
-    <t>Hide main frame during test session</t>
-  </si>
-  <si>
     <t>Show startup warning</t>
   </si>
   <si>
@@ -127,12 +130,18 @@
   </si>
   <si>
     <t>percent</t>
+  </si>
+  <si>
+    <t>Enable (1) or disable (0) test parameters on main window</t>
+  </si>
+  <si>
+    <t>Hide main window during test session</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -207,6 +216,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -254,7 +266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +299,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,6 +351,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,139 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,58 +567,114 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1.0</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1.0</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0.0</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="n">
         <v>1.0</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -709,12 +683,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +708,91 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="55.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
@@ -753,7 +812,7 @@
         <v>0.8</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
